--- a/biology/Botanique/Lindleya_mespiloides/Lindleya_mespiloides.xlsx
+++ b/biology/Botanique/Lindleya_mespiloides/Lindleya_mespiloides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lindleya
 Lindleya mespiloides, unique représentant du genre Lindleya, est une espèce d'arbustes de la famille des Rosaceae, endémique du Mexique.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbuste à feuilles persistantes, simples, alternes, à limbe vert brillant, coriace et glabre sur les deux faces. Les fleurs possèdent cinq pétales blancs et cinq sépales, généralement vingt étamines, et cinq carpelles. Les fruits sont des capsules possédant deux graines par locule[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbuste à feuilles persistantes, simples, alternes, à limbe vert brillant, coriace et glabre sur les deux faces. Les fleurs possèdent cinq pétales blancs et cinq sépales, généralement vingt étamines, et cinq carpelles. Les fruits sont des capsules possédant deux graines par locule.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une espèce endémique du Mexique[2],[3], caractéristique du désert de Chihuahua[4],[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce endémique du Mexique caractéristique du désert de Chihuahua,.
 </t>
         </is>
       </c>
@@ -574,19 +590,21 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Lindleya mespiloides Kunth, 1824[2].
-Lindleya mespiloides a pour synonymes[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Lindleya mespiloides Kunth, 1824.
+Lindleya mespiloides a pour synonymes :
 Lindleya mespiloides Schltdl.
 Lindleya schiedeana Schltdl.
 Lindleyella mespilioides (Kunth) Rydb.
 Lindleyella mespiloides (Kunth) Rydb.
 Lindleyella schiedeana Rydb.
-Lindleya Kunth, 1824 a pour synonymes[2],[3] :
+Lindleya Kunth, 1824 a pour synonymes, :
 Lindleyella Rydb., 1908
 Neolindleyella Fedde, 1940, nom. superfl.
-Lindleya Kunth, 1824 a deux homonymes[6] :
+Lindleya Kunth, 1824 a deux homonymes :
 Lindleya Nees, 1821, nom. illeg., synonyme de Gordonia Ellis, 1771 (famille des Theaceae) ;
 et Lindleya Kunth, 1822, nom. nud., synonyme de Casearia Jacq., 1760 (famille des Salicaceae).</t>
         </is>
